--- a/assets/template/excel/user_import_template.xlsx
+++ b/assets/template/excel/user_import_template.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="用户信息数据" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,10 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>部门编号</t>
+    <t>用户编号</t>
   </si>
   <si>
     <t>登录名称</t>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>帐号状态</t>
+  </si>
+  <si>
+    <t>部门编号</t>
   </si>
   <si>
     <t>user001</t>
@@ -679,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +691,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1019,7 +1020,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1027,24 +1028,24 @@
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1056,46 +1057,46 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入6-18位长度" sqref="C2:C1048576">
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入1-32位有效长度" sqref="C2 D3:D1048576">
+      <formula1>1</formula1>
+      <formula2>32</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入6-18位长度" sqref="B2 C3:C1048576">
       <formula1>6</formula1>
       <formula2>18</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入1-32位有效长度" sqref="D2 D3:D1048576">
-      <formula1>1</formula1>
-      <formula2>32</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请选择对应值" sqref="G2:G1048576">
+      <formula1>"正常,停用"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入11位有效手机号" sqref="F2:F1048576">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请输入11位有效手机号" sqref="E2">
       <formula1>11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请选择对应值" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请选择对应值" sqref="F2:F1048576">
       <formula1>"男,女,未知"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据限制" error="请选择对应值" sqref="H2:H1048576">
-      <formula1>"正常,停用"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
